--- a/biology/Histoire de la zoologie et de la botanique/Samuel_Stutchbury/Samuel_Stutchbury.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Samuel_Stutchbury/Samuel_Stutchbury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Stutchbury est un naturaliste et un géologue britannique, né le 15 janvier 1798 et mort le 12 février 1859.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le naturaliste de l’expédition en Nouvelle-Galles du Sud organisée par la Pacific Pearl Company de 1825 à 1827. Il réalise de nombreuses observations et assemble une importante collection d’histoire naturelle.
 Il retourne en Grande-Bretagne et devient conservateur du Bristol Philosophical Institution.
@@ -544,7 +558,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Michael D. Crane (1983). Samuel Stutchbury (1798-1859), Naturalist and Geologist, Notes and Records of the Royal Society of London, 37 (2) : 189-200.  (ISSN 0035-9149)</t>
         </is>
